--- a/节点数据.xlsx
+++ b/节点数据.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F082A5-BC4C-415C-926D-9FA2793552F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BDEDAA-2349-44AA-AFB8-337BCD913626}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -14,23 +14,30 @@
     <sheet name="MassBeam" sheetId="7" r:id="rId4"/>
     <sheet name="NodePier" sheetId="3" r:id="rId5"/>
     <sheet name="ElePier" sheetId="6" r:id="rId6"/>
-    <sheet name="Masspier" sheetId="8" r:id="rId7"/>
-    <sheet name="NodeSpring" sheetId="4" r:id="rId8"/>
-    <sheet name="Zero" sheetId="11" r:id="rId9"/>
-    <sheet name="刚性连接" sheetId="9" r:id="rId10"/>
-    <sheet name="EleALL" sheetId="10" r:id="rId11"/>
+    <sheet name="Bearing" sheetId="12" r:id="rId7"/>
+    <sheet name="Masspier" sheetId="8" r:id="rId8"/>
+    <sheet name="NodeSpring" sheetId="4" r:id="rId9"/>
+    <sheet name="Zero" sheetId="11" r:id="rId10"/>
+    <sheet name="刚性连接" sheetId="9" r:id="rId11"/>
+    <sheet name="EleALL" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2774" uniqueCount="647">
   <si>
     <t>1,</t>
   </si>
@@ -1856,6 +1863,198 @@
   </si>
   <si>
     <t>*$m2]</t>
+  </si>
+  <si>
+    <t>#Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$A0</t>
+  </si>
+  <si>
+    <t>$E0</t>
+  </si>
+  <si>
+    <t>$G0</t>
+  </si>
+  <si>
+    <t>$J0</t>
+  </si>
+  <si>
+    <t>$Iy0</t>
+  </si>
+  <si>
+    <t>$Iz0</t>
+  </si>
+  <si>
+    <t>数据库/用户</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>桩基础截面</t>
+  </si>
+  <si>
+    <t>数值</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>桥墩承台</t>
+  </si>
+  <si>
+    <t>桥墩截面</t>
+  </si>
+  <si>
+    <t>变截面</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>帽梁变截面</t>
+  </si>
+  <si>
+    <t>帽梁</t>
+  </si>
+  <si>
+    <t>C-C截面</t>
+  </si>
+  <si>
+    <t>D-D截面</t>
+  </si>
+  <si>
+    <t>F-F截面</t>
+  </si>
+  <si>
+    <t>E-E截面</t>
+  </si>
+  <si>
+    <t>K-K截面</t>
+  </si>
+  <si>
+    <t>E-F变截面</t>
+  </si>
+  <si>
+    <t>F-E变截面</t>
+  </si>
+  <si>
+    <t>D-K变</t>
+  </si>
+  <si>
+    <t>K-E变</t>
+  </si>
+  <si>
+    <t>E-K变</t>
+  </si>
+  <si>
+    <t>K-D变</t>
+  </si>
+  <si>
+    <t>D-K变1</t>
+  </si>
+  <si>
+    <t>D-K变2</t>
+  </si>
+  <si>
+    <t>D-K变3</t>
+  </si>
+  <si>
+    <t>K-D变1</t>
+  </si>
+  <si>
+    <t>K-D变2</t>
+  </si>
+  <si>
+    <t>K-D变3</t>
+  </si>
+  <si>
+    <t>E-K变1</t>
+  </si>
+  <si>
+    <t>E-K变2</t>
+  </si>
+  <si>
+    <t>E-K变3</t>
+  </si>
+  <si>
+    <t>E-K变4</t>
+  </si>
+  <si>
+    <t>E-K变5</t>
+  </si>
+  <si>
+    <t>F-E变截面1</t>
+  </si>
+  <si>
+    <t>F-E变截面2</t>
+  </si>
+  <si>
+    <t>F-E变截面3</t>
+  </si>
+  <si>
+    <t>F-E变截面4</t>
+  </si>
+  <si>
+    <t>F-E变截面5</t>
+  </si>
+  <si>
+    <t>E-F变截面1</t>
+  </si>
+  <si>
+    <t>E-F变截面2</t>
+  </si>
+  <si>
+    <t>E-F变截面3</t>
+  </si>
+  <si>
+    <t>E-F变截面4</t>
+  </si>
+  <si>
+    <t>E-F变截面5</t>
+  </si>
+  <si>
+    <t>K-E变1</t>
+  </si>
+  <si>
+    <t>K-E变2</t>
+  </si>
+  <si>
+    <t>K-E变3</t>
+  </si>
+  <si>
+    <t>K-E变4</t>
+  </si>
+  <si>
+    <t>K-E变5</t>
+  </si>
+  <si>
+    <t>D-K变4</t>
+  </si>
+  <si>
+    <t>K-D变4</t>
+  </si>
+  <si>
+    <t>Asy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ixx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iyy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Izz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2212,7 +2411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A193" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E19"/>
     </sheetView>
   </sheetViews>
@@ -4214,6 +4413,594 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83ACD26-4D48-484C-A117-44FACCE3DBDC}">
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="A2:J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="9" style="3"/>
+    <col min="14" max="14" width="44.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>127</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2+1</f>
+        <v>128</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>4</v>
+      </c>
+      <c r="L2" s="3">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C3" s="3">
+        <f>+C2+2</f>
+        <v>129</v>
+      </c>
+      <c r="D3" s="3">
+        <f>+D2+2</f>
+        <v>130</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:D9" si="0">+C3+2</f>
+        <v>131</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3">
+        <v>6</v>
+      </c>
+      <c r="N4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3">
+        <v>4</v>
+      </c>
+      <c r="M6" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3</v>
+      </c>
+      <c r="L7" s="3">
+        <v>4</v>
+      </c>
+      <c r="M7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L11" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="M11" s="3">
+        <v>127</v>
+      </c>
+      <c r="N11" s="3">
+        <f>M11+1</f>
+        <v>128</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>5</v>
+      </c>
+      <c r="R11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="M12" s="3">
+        <f>+M11+2</f>
+        <v>129</v>
+      </c>
+      <c r="N12" s="3">
+        <f>+N11+2</f>
+        <v>130</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L13" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" ref="M13:M18" si="1">+M12+2</f>
+        <v>131</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" ref="N13:N18" si="2">+N12+2</f>
+        <v>132</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>5</v>
+      </c>
+      <c r="R13" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L16" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>5</v>
+      </c>
+      <c r="R16" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34EC375-4376-4BB5-A814-2B8B71B6356F}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
@@ -5369,12 +6156,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437B4C6A-2739-4643-BA72-DBABC394B99B}">
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:E71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9773,12 +10560,3972 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8EA56D-2DBE-40F7-80F0-90EEE2A815C2}">
+  <dimension ref="A1:R71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H1" t="s">
+        <v>644</v>
+      </c>
+      <c r="I1" t="s">
+        <v>645</v>
+      </c>
+      <c r="J1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E2">
+        <v>3.1415999999999999</v>
+      </c>
+      <c r="F2">
+        <v>2.8273999999999999</v>
+      </c>
+      <c r="G2">
+        <v>2.8273999999999999</v>
+      </c>
+      <c r="H2">
+        <v>1.5708</v>
+      </c>
+      <c r="I2">
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="P2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="Q2">
+        <v>6.2831999999999999</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E3">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="F3">
+        <v>56.439</v>
+      </c>
+      <c r="G3">
+        <v>56.421999999999997</v>
+      </c>
+      <c r="H3">
+        <v>641.36199999999997</v>
+      </c>
+      <c r="I3">
+        <v>376.76799999999997</v>
+      </c>
+      <c r="J3">
+        <v>376.76799999999997</v>
+      </c>
+      <c r="K3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O3">
+        <v>8.4049999999999994</v>
+      </c>
+      <c r="P3">
+        <v>8.4049999999999994</v>
+      </c>
+      <c r="Q3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C4" t="s">
+        <v>596</v>
+      </c>
+      <c r="D4" t="s">
+        <v>598</v>
+      </c>
+      <c r="E4">
+        <v>13.795299999999999</v>
+      </c>
+      <c r="F4">
+        <v>10.914300000000001</v>
+      </c>
+      <c r="G4">
+        <v>11.4473</v>
+      </c>
+      <c r="H4">
+        <v>16.234999999999999</v>
+      </c>
+      <c r="I4">
+        <v>5.1688000000000001</v>
+      </c>
+      <c r="J4">
+        <v>48.556899999999999</v>
+      </c>
+      <c r="K4">
+        <v>3.35</v>
+      </c>
+      <c r="L4">
+        <v>3.35</v>
+      </c>
+      <c r="M4">
+        <v>1.2</v>
+      </c>
+      <c r="N4">
+        <v>1.2</v>
+      </c>
+      <c r="O4">
+        <v>0.54069999999999996</v>
+      </c>
+      <c r="P4">
+        <v>6.2904999999999998</v>
+      </c>
+      <c r="Q4">
+        <v>17.128499999999999</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C5" t="s">
+        <v>600</v>
+      </c>
+      <c r="D5" t="s">
+        <v>601</v>
+      </c>
+      <c r="E5">
+        <v>24.9</v>
+      </c>
+      <c r="F5">
+        <v>20.75</v>
+      </c>
+      <c r="G5">
+        <v>20.75</v>
+      </c>
+      <c r="H5">
+        <v>57.714199999999998</v>
+      </c>
+      <c r="I5">
+        <v>18.675000000000001</v>
+      </c>
+      <c r="J5">
+        <v>142.9468</v>
+      </c>
+      <c r="K5">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="L5">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="M5">
+        <v>1.5</v>
+      </c>
+      <c r="N5">
+        <v>1.5</v>
+      </c>
+      <c r="O5">
+        <v>1.125</v>
+      </c>
+      <c r="P5">
+        <v>8.6113</v>
+      </c>
+      <c r="Q5">
+        <v>22.6</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D6" t="s">
+        <v>602</v>
+      </c>
+      <c r="E6">
+        <v>24.9</v>
+      </c>
+      <c r="F6">
+        <v>20.75</v>
+      </c>
+      <c r="G6">
+        <v>20.75</v>
+      </c>
+      <c r="H6">
+        <v>57.714199999999998</v>
+      </c>
+      <c r="I6">
+        <v>18.675000000000001</v>
+      </c>
+      <c r="J6">
+        <v>142.9468</v>
+      </c>
+      <c r="K6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="L6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="M6">
+        <v>1.5</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+      <c r="O6">
+        <v>1.125</v>
+      </c>
+      <c r="P6">
+        <v>8.6113</v>
+      </c>
+      <c r="Q6">
+        <v>22.6</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C7" t="s">
+        <v>596</v>
+      </c>
+      <c r="D7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E7">
+        <v>24.312200000000001</v>
+      </c>
+      <c r="F7">
+        <v>19.656500000000001</v>
+      </c>
+      <c r="G7">
+        <v>7.7839</v>
+      </c>
+      <c r="H7">
+        <v>31.8386</v>
+      </c>
+      <c r="I7">
+        <v>11.080399999999999</v>
+      </c>
+      <c r="J7">
+        <v>353.46899999999999</v>
+      </c>
+      <c r="K7">
+        <v>9.3721999999999994</v>
+      </c>
+      <c r="L7">
+        <v>9.2777999999999992</v>
+      </c>
+      <c r="M7">
+        <v>0.96640000000000004</v>
+      </c>
+      <c r="N7">
+        <v>1.2336</v>
+      </c>
+      <c r="O7">
+        <v>0.8377</v>
+      </c>
+      <c r="P7">
+        <v>17.674499999999998</v>
+      </c>
+      <c r="Q7">
+        <v>40.024500000000003</v>
+      </c>
+      <c r="R7">
+        <v>6.8284000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D8" t="s">
+        <v>604</v>
+      </c>
+      <c r="E8">
+        <v>12.1654</v>
+      </c>
+      <c r="F8">
+        <v>8.2052999999999994</v>
+      </c>
+      <c r="G8">
+        <v>2.0194999999999999</v>
+      </c>
+      <c r="H8">
+        <v>19.915800000000001</v>
+      </c>
+      <c r="I8">
+        <v>7.9949000000000003</v>
+      </c>
+      <c r="J8">
+        <v>250.34100000000001</v>
+      </c>
+      <c r="K8">
+        <v>9.3249999999999993</v>
+      </c>
+      <c r="L8">
+        <v>9.3249999999999993</v>
+      </c>
+      <c r="M8">
+        <v>0.85580000000000001</v>
+      </c>
+      <c r="N8">
+        <v>1.3442000000000001</v>
+      </c>
+      <c r="O8">
+        <v>2.6322000000000001</v>
+      </c>
+      <c r="P8">
+        <v>10.410500000000001</v>
+      </c>
+      <c r="Q8">
+        <v>40.543100000000003</v>
+      </c>
+      <c r="R8">
+        <v>22.583100000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C9" t="s">
+        <v>596</v>
+      </c>
+      <c r="D9" t="s">
+        <v>605</v>
+      </c>
+      <c r="E9">
+        <v>43.692100000000003</v>
+      </c>
+      <c r="F9">
+        <v>33.113399999999999</v>
+      </c>
+      <c r="G9">
+        <v>24.881900000000002</v>
+      </c>
+      <c r="H9">
+        <v>204.67500000000001</v>
+      </c>
+      <c r="I9">
+        <v>83.138999999999996</v>
+      </c>
+      <c r="J9">
+        <v>491.98</v>
+      </c>
+      <c r="K9">
+        <v>9.3556000000000008</v>
+      </c>
+      <c r="L9">
+        <v>9.2943999999999996</v>
+      </c>
+      <c r="M9">
+        <v>2.0179999999999998</v>
+      </c>
+      <c r="N9">
+        <v>2.4868000000000001</v>
+      </c>
+      <c r="O9">
+        <v>3.3325999999999998</v>
+      </c>
+      <c r="P9">
+        <v>13.576599999999999</v>
+      </c>
+      <c r="Q9">
+        <v>43.382100000000001</v>
+      </c>
+      <c r="R9">
+        <v>10.0284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C10" t="s">
+        <v>596</v>
+      </c>
+      <c r="D10" t="s">
+        <v>606</v>
+      </c>
+      <c r="E10">
+        <v>28.9147</v>
+      </c>
+      <c r="F10">
+        <v>19.1554</v>
+      </c>
+      <c r="G10">
+        <v>11.5601</v>
+      </c>
+      <c r="H10">
+        <v>81.361699999999999</v>
+      </c>
+      <c r="I10">
+        <v>33.012099999999997</v>
+      </c>
+      <c r="J10">
+        <v>405.899</v>
+      </c>
+      <c r="K10">
+        <v>9.3646999999999991</v>
+      </c>
+      <c r="L10">
+        <v>9.2852999999999994</v>
+      </c>
+      <c r="M10">
+        <v>1.4843999999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.7976000000000001</v>
+      </c>
+      <c r="O10">
+        <v>2.3094999999999999</v>
+      </c>
+      <c r="P10">
+        <v>14.1037</v>
+      </c>
+      <c r="Q10">
+        <v>42.164099999999998</v>
+      </c>
+      <c r="R10">
+        <v>13.9084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>595</v>
+      </c>
+      <c r="C11" t="s">
+        <v>596</v>
+      </c>
+      <c r="D11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E11">
+        <v>23.911999999999999</v>
+      </c>
+      <c r="F11">
+        <v>16.235900000000001</v>
+      </c>
+      <c r="G11">
+        <v>8.2792999999999992</v>
+      </c>
+      <c r="H11">
+        <v>48.182899999999997</v>
+      </c>
+      <c r="I11">
+        <v>18.672899999999998</v>
+      </c>
+      <c r="J11">
+        <v>335.66699999999997</v>
+      </c>
+      <c r="K11">
+        <v>9.3646999999999991</v>
+      </c>
+      <c r="L11">
+        <v>9.2852999999999994</v>
+      </c>
+      <c r="M11">
+        <v>1.2276</v>
+      </c>
+      <c r="N11">
+        <v>1.4865999999999999</v>
+      </c>
+      <c r="O11">
+        <v>1.5794999999999999</v>
+      </c>
+      <c r="P11">
+        <v>14.103400000000001</v>
+      </c>
+      <c r="Q11">
+        <v>41.208100000000002</v>
+      </c>
+      <c r="R11">
+        <v>12.7965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>599</v>
+      </c>
+      <c r="C12" t="s">
+        <v>596</v>
+      </c>
+      <c r="D12" t="s">
+        <v>608</v>
+      </c>
+      <c r="E12">
+        <v>12.571400000000001</v>
+      </c>
+      <c r="F12">
+        <v>8.6186000000000007</v>
+      </c>
+      <c r="G12">
+        <v>1.1941999999999999</v>
+      </c>
+      <c r="H12">
+        <v>35.789099999999998</v>
+      </c>
+      <c r="I12">
+        <v>23.1356</v>
+      </c>
+      <c r="J12">
+        <v>240.22499999999999</v>
+      </c>
+      <c r="K12">
+        <v>9.4162999999999997</v>
+      </c>
+      <c r="L12">
+        <v>9.2337000000000007</v>
+      </c>
+      <c r="M12">
+        <v>1.3996999999999999</v>
+      </c>
+      <c r="N12">
+        <v>1.8823000000000001</v>
+      </c>
+      <c r="O12">
+        <v>21.175699999999999</v>
+      </c>
+      <c r="P12">
+        <v>6.9457000000000004</v>
+      </c>
+      <c r="Q12">
+        <v>42.352200000000003</v>
+      </c>
+      <c r="R12">
+        <v>27.664899999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>599</v>
+      </c>
+      <c r="C13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D13" t="s">
+        <v>609</v>
+      </c>
+      <c r="E13">
+        <v>14.5322</v>
+      </c>
+      <c r="F13">
+        <v>9.1220999999999997</v>
+      </c>
+      <c r="G13">
+        <v>1.7465999999999999</v>
+      </c>
+      <c r="H13">
+        <v>57.359200000000001</v>
+      </c>
+      <c r="I13">
+        <v>47.912399999999998</v>
+      </c>
+      <c r="J13">
+        <v>251.422</v>
+      </c>
+      <c r="K13">
+        <v>9.4039999999999999</v>
+      </c>
+      <c r="L13">
+        <v>9.2460000000000004</v>
+      </c>
+      <c r="M13">
+        <v>2.0293999999999999</v>
+      </c>
+      <c r="N13">
+        <v>2.3016000000000001</v>
+      </c>
+      <c r="O13">
+        <v>29.684000000000001</v>
+      </c>
+      <c r="P13">
+        <v>5.7184999999999997</v>
+      </c>
+      <c r="Q13">
+        <v>43.855600000000003</v>
+      </c>
+      <c r="R13">
+        <v>30.529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>599</v>
+      </c>
+      <c r="C14" t="s">
+        <v>596</v>
+      </c>
+      <c r="D14" t="s">
+        <v>610</v>
+      </c>
+      <c r="E14">
+        <v>10.3177</v>
+      </c>
+      <c r="F14">
+        <v>7.5225999999999997</v>
+      </c>
+      <c r="G14">
+        <v>0.65069999999999995</v>
+      </c>
+      <c r="H14">
+        <v>15.617000000000001</v>
+      </c>
+      <c r="I14">
+        <v>7.4325000000000001</v>
+      </c>
+      <c r="J14">
+        <v>223.61099999999999</v>
+      </c>
+      <c r="K14">
+        <v>9.4361999999999995</v>
+      </c>
+      <c r="L14">
+        <v>9.2138000000000009</v>
+      </c>
+      <c r="M14">
+        <v>0.79449999999999998</v>
+      </c>
+      <c r="N14">
+        <v>1.4055</v>
+      </c>
+      <c r="O14">
+        <v>12.99</v>
+      </c>
+      <c r="P14">
+        <v>9.1853999999999996</v>
+      </c>
+      <c r="Q14">
+        <v>40.8245</v>
+      </c>
+      <c r="R14">
+        <v>24.758800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>599</v>
+      </c>
+      <c r="C15" t="s">
+        <v>596</v>
+      </c>
+      <c r="D15" t="s">
+        <v>611</v>
+      </c>
+      <c r="E15">
+        <v>10.396000000000001</v>
+      </c>
+      <c r="F15">
+        <v>7.4526000000000003</v>
+      </c>
+      <c r="G15">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="H15">
+        <v>22.9938</v>
+      </c>
+      <c r="I15">
+        <v>13.085000000000001</v>
+      </c>
+      <c r="J15">
+        <v>198.655</v>
+      </c>
+      <c r="K15">
+        <v>9.4161999999999999</v>
+      </c>
+      <c r="L15">
+        <v>9.2338000000000005</v>
+      </c>
+      <c r="M15">
+        <v>1.1576</v>
+      </c>
+      <c r="N15">
+        <v>1.5566</v>
+      </c>
+      <c r="O15">
+        <v>14.4811</v>
+      </c>
+      <c r="P15">
+        <v>6.9454000000000002</v>
+      </c>
+      <c r="Q15">
+        <v>41.3934</v>
+      </c>
+      <c r="R15">
+        <v>26.183199999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>599</v>
+      </c>
+      <c r="C16" t="s">
+        <v>596</v>
+      </c>
+      <c r="D16" t="s">
+        <v>612</v>
+      </c>
+      <c r="E16">
+        <v>12.571400000000001</v>
+      </c>
+      <c r="F16">
+        <v>8.6186000000000007</v>
+      </c>
+      <c r="G16">
+        <v>1.1941999999999999</v>
+      </c>
+      <c r="H16">
+        <v>35.789099999999998</v>
+      </c>
+      <c r="I16">
+        <v>23.1356</v>
+      </c>
+      <c r="J16">
+        <v>240.22499999999999</v>
+      </c>
+      <c r="K16">
+        <v>9.4162999999999997</v>
+      </c>
+      <c r="L16">
+        <v>9.2337000000000007</v>
+      </c>
+      <c r="M16">
+        <v>1.3996999999999999</v>
+      </c>
+      <c r="N16">
+        <v>1.8823000000000001</v>
+      </c>
+      <c r="O16">
+        <v>21.175699999999999</v>
+      </c>
+      <c r="P16">
+        <v>6.9457000000000004</v>
+      </c>
+      <c r="Q16">
+        <v>42.352200000000003</v>
+      </c>
+      <c r="R16">
+        <v>27.664899999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>599</v>
+      </c>
+      <c r="C17" t="s">
+        <v>596</v>
+      </c>
+      <c r="D17" t="s">
+        <v>613</v>
+      </c>
+      <c r="E17">
+        <v>10.396000000000001</v>
+      </c>
+      <c r="F17">
+        <v>7.4526000000000003</v>
+      </c>
+      <c r="G17">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="H17">
+        <v>22.9938</v>
+      </c>
+      <c r="I17">
+        <v>13.085000000000001</v>
+      </c>
+      <c r="J17">
+        <v>198.655</v>
+      </c>
+      <c r="K17">
+        <v>9.4161999999999999</v>
+      </c>
+      <c r="L17">
+        <v>9.2338000000000005</v>
+      </c>
+      <c r="M17">
+        <v>1.1576</v>
+      </c>
+      <c r="N17">
+        <v>1.5566</v>
+      </c>
+      <c r="O17">
+        <v>14.4811</v>
+      </c>
+      <c r="P17">
+        <v>6.9454000000000002</v>
+      </c>
+      <c r="Q17">
+        <v>41.3934</v>
+      </c>
+      <c r="R17">
+        <v>26.183199999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>599</v>
+      </c>
+      <c r="C18" t="s">
+        <v>596</v>
+      </c>
+      <c r="D18" t="s">
+        <v>614</v>
+      </c>
+      <c r="E18">
+        <v>10.3177</v>
+      </c>
+      <c r="F18">
+        <v>7.5663</v>
+      </c>
+      <c r="G18">
+        <v>0.66520000000000001</v>
+      </c>
+      <c r="H18">
+        <v>15.8226</v>
+      </c>
+      <c r="I18">
+        <v>7.4326999999999996</v>
+      </c>
+      <c r="J18">
+        <v>223.61160000000001</v>
+      </c>
+      <c r="K18">
+        <v>9.4361999999999995</v>
+      </c>
+      <c r="L18">
+        <v>9.2138000000000009</v>
+      </c>
+      <c r="M18">
+        <v>0.79449999999999998</v>
+      </c>
+      <c r="N18">
+        <v>1.4055</v>
+      </c>
+      <c r="O18">
+        <v>12.99</v>
+      </c>
+      <c r="P18">
+        <v>9.1853999999999996</v>
+      </c>
+      <c r="Q18">
+        <v>40.8245</v>
+      </c>
+      <c r="R18">
+        <v>24.758800000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>599</v>
+      </c>
+      <c r="C19" t="s">
+        <v>596</v>
+      </c>
+      <c r="D19" t="s">
+        <v>615</v>
+      </c>
+      <c r="E19">
+        <v>10.360900000000001</v>
+      </c>
+      <c r="F19">
+        <v>7.5694999999999997</v>
+      </c>
+      <c r="G19">
+        <v>0.77070000000000005</v>
+      </c>
+      <c r="H19">
+        <v>19.0779</v>
+      </c>
+      <c r="I19">
+        <v>9.7050000000000001</v>
+      </c>
+      <c r="J19">
+        <v>213.36760000000001</v>
+      </c>
+      <c r="K19">
+        <v>9.4276999999999997</v>
+      </c>
+      <c r="L19">
+        <v>9.2223000000000006</v>
+      </c>
+      <c r="M19">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="N19">
+        <v>1.4784999999999999</v>
+      </c>
+      <c r="O19">
+        <v>13.984299999999999</v>
+      </c>
+      <c r="P19">
+        <v>8.1381999999999994</v>
+      </c>
+      <c r="Q19">
+        <v>41.061599999999999</v>
+      </c>
+      <c r="R19">
+        <v>25.355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>599</v>
+      </c>
+      <c r="C20" t="s">
+        <v>596</v>
+      </c>
+      <c r="D20" t="s">
+        <v>616</v>
+      </c>
+      <c r="E20">
+        <v>10.389200000000001</v>
+      </c>
+      <c r="F20">
+        <v>7.5252999999999997</v>
+      </c>
+      <c r="G20">
+        <v>0.88929999999999998</v>
+      </c>
+      <c r="H20">
+        <v>22.1921</v>
+      </c>
+      <c r="I20">
+        <v>12.1441</v>
+      </c>
+      <c r="J20">
+        <v>202.73580000000001</v>
+      </c>
+      <c r="K20">
+        <v>9.4192999999999998</v>
+      </c>
+      <c r="L20">
+        <v>9.2307000000000006</v>
+      </c>
+      <c r="M20">
+        <v>1.0952</v>
+      </c>
+      <c r="N20">
+        <v>1.5378000000000001</v>
+      </c>
+      <c r="O20">
+        <v>14.427</v>
+      </c>
+      <c r="P20">
+        <v>7.2469000000000001</v>
+      </c>
+      <c r="Q20">
+        <v>41.302399999999999</v>
+      </c>
+      <c r="R20">
+        <v>25.956399999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>599</v>
+      </c>
+      <c r="C21" t="s">
+        <v>596</v>
+      </c>
+      <c r="D21" t="s">
+        <v>617</v>
+      </c>
+      <c r="E21">
+        <v>10.389200000000001</v>
+      </c>
+      <c r="F21">
+        <v>7.5252999999999997</v>
+      </c>
+      <c r="G21">
+        <v>0.88929999999999998</v>
+      </c>
+      <c r="H21">
+        <v>22.1921</v>
+      </c>
+      <c r="I21">
+        <v>12.1441</v>
+      </c>
+      <c r="J21">
+        <v>202.73580000000001</v>
+      </c>
+      <c r="K21">
+        <v>9.4192999999999998</v>
+      </c>
+      <c r="L21">
+        <v>9.2307000000000006</v>
+      </c>
+      <c r="M21">
+        <v>1.0952</v>
+      </c>
+      <c r="N21">
+        <v>1.5378000000000001</v>
+      </c>
+      <c r="O21">
+        <v>14.427</v>
+      </c>
+      <c r="P21">
+        <v>7.2469000000000001</v>
+      </c>
+      <c r="Q21">
+        <v>41.302399999999999</v>
+      </c>
+      <c r="R21">
+        <v>25.956399999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>599</v>
+      </c>
+      <c r="C22" t="s">
+        <v>596</v>
+      </c>
+      <c r="D22" t="s">
+        <v>618</v>
+      </c>
+      <c r="E22">
+        <v>10.360900000000001</v>
+      </c>
+      <c r="F22">
+        <v>7.5694999999999997</v>
+      </c>
+      <c r="G22">
+        <v>0.77070000000000005</v>
+      </c>
+      <c r="H22">
+        <v>19.0779</v>
+      </c>
+      <c r="I22">
+        <v>9.7050000000000001</v>
+      </c>
+      <c r="J22">
+        <v>213.36760000000001</v>
+      </c>
+      <c r="K22">
+        <v>9.4276999999999997</v>
+      </c>
+      <c r="L22">
+        <v>9.2223000000000006</v>
+      </c>
+      <c r="M22">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="N22">
+        <v>1.4784999999999999</v>
+      </c>
+      <c r="O22">
+        <v>13.984299999999999</v>
+      </c>
+      <c r="P22">
+        <v>8.1381999999999994</v>
+      </c>
+      <c r="Q22">
+        <v>41.061599999999999</v>
+      </c>
+      <c r="R22">
+        <v>25.355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>599</v>
+      </c>
+      <c r="C23" t="s">
+        <v>596</v>
+      </c>
+      <c r="D23" t="s">
+        <v>619</v>
+      </c>
+      <c r="E23">
+        <v>10.396100000000001</v>
+      </c>
+      <c r="F23">
+        <v>7.4999000000000002</v>
+      </c>
+      <c r="G23">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="H23">
+        <v>23.300799999999999</v>
+      </c>
+      <c r="I23">
+        <v>13.0852</v>
+      </c>
+      <c r="J23">
+        <v>198.65620000000001</v>
+      </c>
+      <c r="K23">
+        <v>9.4161999999999999</v>
+      </c>
+      <c r="L23">
+        <v>9.2338000000000005</v>
+      </c>
+      <c r="M23">
+        <v>1.1576</v>
+      </c>
+      <c r="N23">
+        <v>1.5566</v>
+      </c>
+      <c r="O23">
+        <v>14.4811</v>
+      </c>
+      <c r="P23">
+        <v>6.9454000000000002</v>
+      </c>
+      <c r="Q23">
+        <v>41.3934</v>
+      </c>
+      <c r="R23">
+        <v>26.183199999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>599</v>
+      </c>
+      <c r="C24" t="s">
+        <v>596</v>
+      </c>
+      <c r="D24" t="s">
+        <v>620</v>
+      </c>
+      <c r="E24">
+        <v>12.4041</v>
+      </c>
+      <c r="F24">
+        <v>8.5983999999999998</v>
+      </c>
+      <c r="G24">
+        <v>1.1974</v>
+      </c>
+      <c r="H24">
+        <v>35.314500000000002</v>
+      </c>
+      <c r="I24">
+        <v>22.224</v>
+      </c>
+      <c r="J24">
+        <v>237.02799999999999</v>
+      </c>
+      <c r="K24">
+        <v>9.4162999999999997</v>
+      </c>
+      <c r="L24">
+        <v>9.2337000000000007</v>
+      </c>
+      <c r="M24">
+        <v>1.3811</v>
+      </c>
+      <c r="N24">
+        <v>1.8573</v>
+      </c>
+      <c r="O24">
+        <v>20.6157</v>
+      </c>
+      <c r="P24">
+        <v>6.9457000000000004</v>
+      </c>
+      <c r="Q24">
+        <v>42.2776</v>
+      </c>
+      <c r="R24">
+        <v>27.549800000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>599</v>
+      </c>
+      <c r="C25" t="s">
+        <v>596</v>
+      </c>
+      <c r="D25" t="s">
+        <v>621</v>
+      </c>
+      <c r="E25">
+        <v>11.809100000000001</v>
+      </c>
+      <c r="F25">
+        <v>8.2794000000000008</v>
+      </c>
+      <c r="G25">
+        <v>1.1197999999999999</v>
+      </c>
+      <c r="H25">
+        <v>31.5229</v>
+      </c>
+      <c r="I25">
+        <v>19.177499999999998</v>
+      </c>
+      <c r="J25">
+        <v>225.65860000000001</v>
+      </c>
+      <c r="K25">
+        <v>9.4162999999999997</v>
+      </c>
+      <c r="L25">
+        <v>9.2337000000000007</v>
+      </c>
+      <c r="M25">
+        <v>1.3148</v>
+      </c>
+      <c r="N25">
+        <v>1.7682</v>
+      </c>
+      <c r="O25">
+        <v>18.685300000000002</v>
+      </c>
+      <c r="P25">
+        <v>6.9455999999999998</v>
+      </c>
+      <c r="Q25">
+        <v>42.013599999999997</v>
+      </c>
+      <c r="R25">
+        <v>27.141999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>599</v>
+      </c>
+      <c r="C26" t="s">
+        <v>596</v>
+      </c>
+      <c r="D26" t="s">
+        <v>622</v>
+      </c>
+      <c r="E26">
+        <v>11.2141</v>
+      </c>
+      <c r="F26">
+        <v>7.9547999999999996</v>
+      </c>
+      <c r="G26">
+        <v>1.0431999999999999</v>
+      </c>
+      <c r="H26">
+        <v>27.919899999999998</v>
+      </c>
+      <c r="I26">
+        <v>16.422899999999998</v>
+      </c>
+      <c r="J26">
+        <v>214.28919999999999</v>
+      </c>
+      <c r="K26">
+        <v>9.4162999999999997</v>
+      </c>
+      <c r="L26">
+        <v>9.2337000000000007</v>
+      </c>
+      <c r="M26">
+        <v>1.2485999999999999</v>
+      </c>
+      <c r="N26">
+        <v>1.6791</v>
+      </c>
+      <c r="O26">
+        <v>16.849900000000002</v>
+      </c>
+      <c r="P26">
+        <v>6.9455</v>
+      </c>
+      <c r="Q26">
+        <v>41.751199999999997</v>
+      </c>
+      <c r="R26">
+        <v>26.736599999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>599</v>
+      </c>
+      <c r="C27" t="s">
+        <v>596</v>
+      </c>
+      <c r="D27" t="s">
+        <v>623</v>
+      </c>
+      <c r="E27">
+        <v>10.619199999999999</v>
+      </c>
+      <c r="F27">
+        <v>7.6254999999999997</v>
+      </c>
+      <c r="G27">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="H27">
+        <v>24.538599999999999</v>
+      </c>
+      <c r="I27">
+        <v>13.9457</v>
+      </c>
+      <c r="J27">
+        <v>202.91970000000001</v>
+      </c>
+      <c r="K27">
+        <v>9.4161999999999999</v>
+      </c>
+      <c r="L27">
+        <v>9.2338000000000005</v>
+      </c>
+      <c r="M27">
+        <v>1.1823999999999999</v>
+      </c>
+      <c r="N27">
+        <v>1.59</v>
+      </c>
+      <c r="O27">
+        <v>15.109299999999999</v>
+      </c>
+      <c r="P27">
+        <v>6.9455</v>
+      </c>
+      <c r="Q27">
+        <v>41.490600000000001</v>
+      </c>
+      <c r="R27">
+        <v>26.333600000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>599</v>
+      </c>
+      <c r="C28" t="s">
+        <v>596</v>
+      </c>
+      <c r="D28" t="s">
+        <v>624</v>
+      </c>
+      <c r="E28">
+        <v>12.571400000000001</v>
+      </c>
+      <c r="F28">
+        <v>8.6858000000000004</v>
+      </c>
+      <c r="G28">
+        <v>1.2177</v>
+      </c>
+      <c r="H28">
+        <v>36.373199999999997</v>
+      </c>
+      <c r="I28">
+        <v>23.135400000000001</v>
+      </c>
+      <c r="J28">
+        <v>240.22569999999999</v>
+      </c>
+      <c r="K28">
+        <v>9.4162999999999997</v>
+      </c>
+      <c r="L28">
+        <v>9.2337000000000007</v>
+      </c>
+      <c r="M28">
+        <v>1.3996999999999999</v>
+      </c>
+      <c r="N28">
+        <v>1.8823000000000001</v>
+      </c>
+      <c r="O28">
+        <v>21.175699999999999</v>
+      </c>
+      <c r="P28">
+        <v>6.9457000000000004</v>
+      </c>
+      <c r="Q28">
+        <v>42.352200000000003</v>
+      </c>
+      <c r="R28">
+        <v>27.664899999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>599</v>
+      </c>
+      <c r="C29" t="s">
+        <v>596</v>
+      </c>
+      <c r="D29" t="s">
+        <v>625</v>
+      </c>
+      <c r="E29">
+        <v>14.5322</v>
+      </c>
+      <c r="F29">
+        <v>9.2117000000000004</v>
+      </c>
+      <c r="G29">
+        <v>1.7766</v>
+      </c>
+      <c r="H29">
+        <v>58.397100000000002</v>
+      </c>
+      <c r="I29">
+        <v>47.912500000000001</v>
+      </c>
+      <c r="J29">
+        <v>251.422</v>
+      </c>
+      <c r="K29">
+        <v>9.4039999999999999</v>
+      </c>
+      <c r="L29">
+        <v>9.2460000000000004</v>
+      </c>
+      <c r="M29">
+        <v>2.0293999999999999</v>
+      </c>
+      <c r="N29">
+        <v>2.3016000000000001</v>
+      </c>
+      <c r="O29">
+        <v>29.684000000000001</v>
+      </c>
+      <c r="P29">
+        <v>5.7184999999999997</v>
+      </c>
+      <c r="Q29">
+        <v>43.855600000000003</v>
+      </c>
+      <c r="R29">
+        <v>30.529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>599</v>
+      </c>
+      <c r="C30" t="s">
+        <v>596</v>
+      </c>
+      <c r="D30" t="s">
+        <v>626</v>
+      </c>
+      <c r="E30">
+        <v>14.099399999999999</v>
+      </c>
+      <c r="F30">
+        <v>9.1245999999999992</v>
+      </c>
+      <c r="G30">
+        <v>1.6395999999999999</v>
+      </c>
+      <c r="H30">
+        <v>53.203200000000002</v>
+      </c>
+      <c r="I30">
+        <v>41.392000000000003</v>
+      </c>
+      <c r="J30">
+        <v>249.17949999999999</v>
+      </c>
+      <c r="K30">
+        <v>9.4063999999999997</v>
+      </c>
+      <c r="L30">
+        <v>9.2436000000000007</v>
+      </c>
+      <c r="M30">
+        <v>1.8835999999999999</v>
+      </c>
+      <c r="N30">
+        <v>2.2075999999999998</v>
+      </c>
+      <c r="O30">
+        <v>27.845099999999999</v>
+      </c>
+      <c r="P30">
+        <v>5.952</v>
+      </c>
+      <c r="Q30">
+        <v>43.512</v>
+      </c>
+      <c r="R30">
+        <v>29.874400000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>599</v>
+      </c>
+      <c r="C31" t="s">
+        <v>596</v>
+      </c>
+      <c r="D31" t="s">
+        <v>627</v>
+      </c>
+      <c r="E31">
+        <v>13.657500000000001</v>
+      </c>
+      <c r="F31">
+        <v>9.0202000000000009</v>
+      </c>
+      <c r="G31">
+        <v>1.5095000000000001</v>
+      </c>
+      <c r="H31">
+        <v>48.151000000000003</v>
+      </c>
+      <c r="I31">
+        <v>35.382899999999999</v>
+      </c>
+      <c r="J31">
+        <v>246.75710000000001</v>
+      </c>
+      <c r="K31">
+        <v>9.4090000000000007</v>
+      </c>
+      <c r="L31">
+        <v>9.2409999999999997</v>
+      </c>
+      <c r="M31">
+        <v>1.7386999999999999</v>
+      </c>
+      <c r="N31">
+        <v>2.1128</v>
+      </c>
+      <c r="O31">
+        <v>25.9482</v>
+      </c>
+      <c r="P31">
+        <v>6.2093999999999996</v>
+      </c>
+      <c r="Q31">
+        <v>43.168300000000002</v>
+      </c>
+      <c r="R31">
+        <v>29.2197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>599</v>
+      </c>
+      <c r="C32" t="s">
+        <v>596</v>
+      </c>
+      <c r="D32" t="s">
+        <v>628</v>
+      </c>
+      <c r="E32">
+        <v>13.2065</v>
+      </c>
+      <c r="F32">
+        <v>8.8956</v>
+      </c>
+      <c r="G32">
+        <v>1.3863000000000001</v>
+      </c>
+      <c r="H32">
+        <v>43.1357</v>
+      </c>
+      <c r="I32">
+        <v>29.8812</v>
+      </c>
+      <c r="J32">
+        <v>244.14500000000001</v>
+      </c>
+      <c r="K32">
+        <v>9.4118999999999993</v>
+      </c>
+      <c r="L32">
+        <v>9.2380999999999993</v>
+      </c>
+      <c r="M32">
+        <v>1.5949</v>
+      </c>
+      <c r="N32">
+        <v>2.0167999999999999</v>
+      </c>
+      <c r="O32">
+        <v>23.9876</v>
+      </c>
+      <c r="P32">
+        <v>6.4951999999999996</v>
+      </c>
+      <c r="Q32">
+        <v>42.8247</v>
+      </c>
+      <c r="R32">
+        <v>28.565000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>599</v>
+      </c>
+      <c r="C33" t="s">
+        <v>596</v>
+      </c>
+      <c r="D33" t="s">
+        <v>629</v>
+      </c>
+      <c r="E33">
+        <v>12.7463</v>
+      </c>
+      <c r="F33">
+        <v>8.7454999999999998</v>
+      </c>
+      <c r="G33">
+        <v>1.2636000000000001</v>
+      </c>
+      <c r="H33">
+        <v>38.179900000000004</v>
+      </c>
+      <c r="I33">
+        <v>24.881799999999998</v>
+      </c>
+      <c r="J33">
+        <v>241.33340000000001</v>
+      </c>
+      <c r="K33">
+        <v>9.4151000000000007</v>
+      </c>
+      <c r="L33">
+        <v>9.2348999999999997</v>
+      </c>
+      <c r="M33">
+        <v>1.4525999999999999</v>
+      </c>
+      <c r="N33">
+        <v>1.9193</v>
+      </c>
+      <c r="O33">
+        <v>21.956700000000001</v>
+      </c>
+      <c r="P33">
+        <v>6.8152999999999997</v>
+      </c>
+      <c r="Q33">
+        <v>42.481000000000002</v>
+      </c>
+      <c r="R33">
+        <v>27.910399999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>599</v>
+      </c>
+      <c r="C34" t="s">
+        <v>596</v>
+      </c>
+      <c r="D34" t="s">
+        <v>630</v>
+      </c>
+      <c r="E34">
+        <v>12.7463</v>
+      </c>
+      <c r="F34">
+        <v>8.7454999999999998</v>
+      </c>
+      <c r="G34">
+        <v>1.2636000000000001</v>
+      </c>
+      <c r="H34">
+        <v>38.179900000000004</v>
+      </c>
+      <c r="I34">
+        <v>24.881799999999998</v>
+      </c>
+      <c r="J34">
+        <v>241.33340000000001</v>
+      </c>
+      <c r="K34">
+        <v>9.4151000000000007</v>
+      </c>
+      <c r="L34">
+        <v>9.2348999999999997</v>
+      </c>
+      <c r="M34">
+        <v>1.4525999999999999</v>
+      </c>
+      <c r="N34">
+        <v>1.9193</v>
+      </c>
+      <c r="O34">
+        <v>21.956700000000001</v>
+      </c>
+      <c r="P34">
+        <v>6.8152999999999997</v>
+      </c>
+      <c r="Q34">
+        <v>42.481000000000002</v>
+      </c>
+      <c r="R34">
+        <v>27.910399999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>599</v>
+      </c>
+      <c r="C35" t="s">
+        <v>596</v>
+      </c>
+      <c r="D35" t="s">
+        <v>631</v>
+      </c>
+      <c r="E35">
+        <v>13.2065</v>
+      </c>
+      <c r="F35">
+        <v>8.8956</v>
+      </c>
+      <c r="G35">
+        <v>1.3863000000000001</v>
+      </c>
+      <c r="H35">
+        <v>43.1357</v>
+      </c>
+      <c r="I35">
+        <v>29.8812</v>
+      </c>
+      <c r="J35">
+        <v>244.14500000000001</v>
+      </c>
+      <c r="K35">
+        <v>9.4118999999999993</v>
+      </c>
+      <c r="L35">
+        <v>9.2380999999999993</v>
+      </c>
+      <c r="M35">
+        <v>1.5949</v>
+      </c>
+      <c r="N35">
+        <v>2.0167999999999999</v>
+      </c>
+      <c r="O35">
+        <v>23.9876</v>
+      </c>
+      <c r="P35">
+        <v>6.4951999999999996</v>
+      </c>
+      <c r="Q35">
+        <v>42.8247</v>
+      </c>
+      <c r="R35">
+        <v>28.565000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>599</v>
+      </c>
+      <c r="C36" t="s">
+        <v>596</v>
+      </c>
+      <c r="D36" t="s">
+        <v>632</v>
+      </c>
+      <c r="E36">
+        <v>13.657500000000001</v>
+      </c>
+      <c r="F36">
+        <v>9.0202000000000009</v>
+      </c>
+      <c r="G36">
+        <v>1.5095000000000001</v>
+      </c>
+      <c r="H36">
+        <v>48.151000000000003</v>
+      </c>
+      <c r="I36">
+        <v>35.382899999999999</v>
+      </c>
+      <c r="J36">
+        <v>246.75710000000001</v>
+      </c>
+      <c r="K36">
+        <v>9.4090000000000007</v>
+      </c>
+      <c r="L36">
+        <v>9.2409999999999997</v>
+      </c>
+      <c r="M36">
+        <v>1.7386999999999999</v>
+      </c>
+      <c r="N36">
+        <v>2.1128</v>
+      </c>
+      <c r="O36">
+        <v>25.9482</v>
+      </c>
+      <c r="P36">
+        <v>6.2093999999999996</v>
+      </c>
+      <c r="Q36">
+        <v>43.168300000000002</v>
+      </c>
+      <c r="R36">
+        <v>29.2197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>599</v>
+      </c>
+      <c r="C37" t="s">
+        <v>596</v>
+      </c>
+      <c r="D37" t="s">
+        <v>633</v>
+      </c>
+      <c r="E37">
+        <v>14.099399999999999</v>
+      </c>
+      <c r="F37">
+        <v>9.1245999999999992</v>
+      </c>
+      <c r="G37">
+        <v>1.6395999999999999</v>
+      </c>
+      <c r="H37">
+        <v>53.203200000000002</v>
+      </c>
+      <c r="I37">
+        <v>41.392000000000003</v>
+      </c>
+      <c r="J37">
+        <v>249.17949999999999</v>
+      </c>
+      <c r="K37">
+        <v>9.4063999999999997</v>
+      </c>
+      <c r="L37">
+        <v>9.2436000000000007</v>
+      </c>
+      <c r="M37">
+        <v>1.8835999999999999</v>
+      </c>
+      <c r="N37">
+        <v>2.2075999999999998</v>
+      </c>
+      <c r="O37">
+        <v>27.845099999999999</v>
+      </c>
+      <c r="P37">
+        <v>5.952</v>
+      </c>
+      <c r="Q37">
+        <v>43.512</v>
+      </c>
+      <c r="R37">
+        <v>29.874400000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>599</v>
+      </c>
+      <c r="C38" t="s">
+        <v>596</v>
+      </c>
+      <c r="D38" t="s">
+        <v>634</v>
+      </c>
+      <c r="E38">
+        <v>12.571400000000001</v>
+      </c>
+      <c r="F38">
+        <v>8.6858000000000004</v>
+      </c>
+      <c r="G38">
+        <v>1.2177</v>
+      </c>
+      <c r="H38">
+        <v>36.373199999999997</v>
+      </c>
+      <c r="I38">
+        <v>23.135400000000001</v>
+      </c>
+      <c r="J38">
+        <v>240.22569999999999</v>
+      </c>
+      <c r="K38">
+        <v>9.4162999999999997</v>
+      </c>
+      <c r="L38">
+        <v>9.2337000000000007</v>
+      </c>
+      <c r="M38">
+        <v>1.3996999999999999</v>
+      </c>
+      <c r="N38">
+        <v>1.8823000000000001</v>
+      </c>
+      <c r="O38">
+        <v>21.175699999999999</v>
+      </c>
+      <c r="P38">
+        <v>6.9457000000000004</v>
+      </c>
+      <c r="Q38">
+        <v>42.352200000000003</v>
+      </c>
+      <c r="R38">
+        <v>27.664899999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>599</v>
+      </c>
+      <c r="C39" t="s">
+        <v>596</v>
+      </c>
+      <c r="D39" t="s">
+        <v>635</v>
+      </c>
+      <c r="E39">
+        <v>10.396100000000001</v>
+      </c>
+      <c r="F39">
+        <v>7.4999000000000002</v>
+      </c>
+      <c r="G39">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="H39">
+        <v>23.300799999999999</v>
+      </c>
+      <c r="I39">
+        <v>13.0852</v>
+      </c>
+      <c r="J39">
+        <v>198.65620000000001</v>
+      </c>
+      <c r="K39">
+        <v>9.4161999999999999</v>
+      </c>
+      <c r="L39">
+        <v>9.2338000000000005</v>
+      </c>
+      <c r="M39">
+        <v>1.1576</v>
+      </c>
+      <c r="N39">
+        <v>1.5566</v>
+      </c>
+      <c r="O39">
+        <v>14.4811</v>
+      </c>
+      <c r="P39">
+        <v>6.9454000000000002</v>
+      </c>
+      <c r="Q39">
+        <v>41.3934</v>
+      </c>
+      <c r="R39">
+        <v>26.183199999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>599</v>
+      </c>
+      <c r="C40" t="s">
+        <v>596</v>
+      </c>
+      <c r="D40" t="s">
+        <v>636</v>
+      </c>
+      <c r="E40">
+        <v>10.619199999999999</v>
+      </c>
+      <c r="F40">
+        <v>7.6254</v>
+      </c>
+      <c r="G40">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="H40">
+        <v>24.538599999999999</v>
+      </c>
+      <c r="I40">
+        <v>13.9457</v>
+      </c>
+      <c r="J40">
+        <v>202.91970000000001</v>
+      </c>
+      <c r="K40">
+        <v>9.4161999999999999</v>
+      </c>
+      <c r="L40">
+        <v>9.2338000000000005</v>
+      </c>
+      <c r="M40">
+        <v>1.1823999999999999</v>
+      </c>
+      <c r="N40">
+        <v>1.59</v>
+      </c>
+      <c r="O40">
+        <v>15.109299999999999</v>
+      </c>
+      <c r="P40">
+        <v>6.9455</v>
+      </c>
+      <c r="Q40">
+        <v>41.490600000000001</v>
+      </c>
+      <c r="R40">
+        <v>26.333600000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>599</v>
+      </c>
+      <c r="C41" t="s">
+        <v>596</v>
+      </c>
+      <c r="D41" t="s">
+        <v>637</v>
+      </c>
+      <c r="E41">
+        <v>11.2141</v>
+      </c>
+      <c r="F41">
+        <v>7.9547999999999996</v>
+      </c>
+      <c r="G41">
+        <v>1.0431999999999999</v>
+      </c>
+      <c r="H41">
+        <v>27.919899999999998</v>
+      </c>
+      <c r="I41">
+        <v>16.422899999999998</v>
+      </c>
+      <c r="J41">
+        <v>214.28919999999999</v>
+      </c>
+      <c r="K41">
+        <v>9.4162999999999997</v>
+      </c>
+      <c r="L41">
+        <v>9.2337000000000007</v>
+      </c>
+      <c r="M41">
+        <v>1.2485999999999999</v>
+      </c>
+      <c r="N41">
+        <v>1.6791</v>
+      </c>
+      <c r="O41">
+        <v>16.849900000000002</v>
+      </c>
+      <c r="P41">
+        <v>6.9455</v>
+      </c>
+      <c r="Q41">
+        <v>41.751199999999997</v>
+      </c>
+      <c r="R41">
+        <v>26.736599999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>599</v>
+      </c>
+      <c r="C42" t="s">
+        <v>596</v>
+      </c>
+      <c r="D42" t="s">
+        <v>638</v>
+      </c>
+      <c r="E42">
+        <v>11.809100000000001</v>
+      </c>
+      <c r="F42">
+        <v>8.2794000000000008</v>
+      </c>
+      <c r="G42">
+        <v>1.1197999999999999</v>
+      </c>
+      <c r="H42">
+        <v>31.5229</v>
+      </c>
+      <c r="I42">
+        <v>19.177499999999998</v>
+      </c>
+      <c r="J42">
+        <v>225.65860000000001</v>
+      </c>
+      <c r="K42">
+        <v>9.4162999999999997</v>
+      </c>
+      <c r="L42">
+        <v>9.2337000000000007</v>
+      </c>
+      <c r="M42">
+        <v>1.3148</v>
+      </c>
+      <c r="N42">
+        <v>1.7682</v>
+      </c>
+      <c r="O42">
+        <v>18.685300000000002</v>
+      </c>
+      <c r="P42">
+        <v>6.9455999999999998</v>
+      </c>
+      <c r="Q42">
+        <v>42.013599999999997</v>
+      </c>
+      <c r="R42">
+        <v>27.141999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>599</v>
+      </c>
+      <c r="C43" t="s">
+        <v>596</v>
+      </c>
+      <c r="D43" t="s">
+        <v>639</v>
+      </c>
+      <c r="E43">
+        <v>12.4041</v>
+      </c>
+      <c r="F43">
+        <v>8.5983999999999998</v>
+      </c>
+      <c r="G43">
+        <v>1.1974</v>
+      </c>
+      <c r="H43">
+        <v>35.314500000000002</v>
+      </c>
+      <c r="I43">
+        <v>22.224</v>
+      </c>
+      <c r="J43">
+        <v>237.02799999999999</v>
+      </c>
+      <c r="K43">
+        <v>9.4162999999999997</v>
+      </c>
+      <c r="L43">
+        <v>9.2337000000000007</v>
+      </c>
+      <c r="M43">
+        <v>1.3811</v>
+      </c>
+      <c r="N43">
+        <v>1.8573</v>
+      </c>
+      <c r="O43">
+        <v>20.6157</v>
+      </c>
+      <c r="P43">
+        <v>6.9457000000000004</v>
+      </c>
+      <c r="Q43">
+        <v>42.2776</v>
+      </c>
+      <c r="R43">
+        <v>27.549800000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>599</v>
+      </c>
+      <c r="C44" t="s">
+        <v>596</v>
+      </c>
+      <c r="D44" t="s">
+        <v>614</v>
+      </c>
+      <c r="E44">
+        <v>10.3177</v>
+      </c>
+      <c r="F44">
+        <v>7.5663</v>
+      </c>
+      <c r="G44">
+        <v>0.66520000000000001</v>
+      </c>
+      <c r="H44">
+        <v>15.8226</v>
+      </c>
+      <c r="I44">
+        <v>7.4326999999999996</v>
+      </c>
+      <c r="J44">
+        <v>223.61160000000001</v>
+      </c>
+      <c r="K44">
+        <v>9.4361999999999995</v>
+      </c>
+      <c r="L44">
+        <v>9.2138000000000009</v>
+      </c>
+      <c r="M44">
+        <v>0.79449999999999998</v>
+      </c>
+      <c r="N44">
+        <v>1.4055</v>
+      </c>
+      <c r="O44">
+        <v>12.99</v>
+      </c>
+      <c r="P44">
+        <v>9.1853999999999996</v>
+      </c>
+      <c r="Q44">
+        <v>40.8245</v>
+      </c>
+      <c r="R44">
+        <v>24.758800000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>599</v>
+      </c>
+      <c r="C45" t="s">
+        <v>596</v>
+      </c>
+      <c r="D45" t="s">
+        <v>615</v>
+      </c>
+      <c r="E45">
+        <v>10.349600000000001</v>
+      </c>
+      <c r="F45">
+        <v>7.5731000000000002</v>
+      </c>
+      <c r="G45">
+        <v>0.73760000000000003</v>
+      </c>
+      <c r="H45">
+        <v>18.1098</v>
+      </c>
+      <c r="I45">
+        <v>9.0107999999999997</v>
+      </c>
+      <c r="J45">
+        <v>216.44489999999999</v>
+      </c>
+      <c r="K45">
+        <v>9.4301999999999992</v>
+      </c>
+      <c r="L45">
+        <v>9.2197999999999993</v>
+      </c>
+      <c r="M45">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="N45">
+        <v>1.4582999999999999</v>
+      </c>
+      <c r="O45">
+        <v>13.755000000000001</v>
+      </c>
+      <c r="P45">
+        <v>8.4303000000000008</v>
+      </c>
+      <c r="Q45">
+        <v>40.990900000000003</v>
+      </c>
+      <c r="R45">
+        <v>25.177700000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>599</v>
+      </c>
+      <c r="C46" t="s">
+        <v>596</v>
+      </c>
+      <c r="D46" t="s">
+        <v>616</v>
+      </c>
+      <c r="E46">
+        <v>10.3742</v>
+      </c>
+      <c r="F46">
+        <v>7.5564999999999998</v>
+      </c>
+      <c r="G46">
+        <v>0.81769999999999998</v>
+      </c>
+      <c r="H46">
+        <v>20.361699999999999</v>
+      </c>
+      <c r="I46">
+        <v>10.683</v>
+      </c>
+      <c r="J46">
+        <v>209.08090000000001</v>
+      </c>
+      <c r="K46">
+        <v>9.4242000000000008</v>
+      </c>
+      <c r="L46">
+        <v>9.2257999999999996</v>
+      </c>
+      <c r="M46">
+        <v>1.0004999999999999</v>
+      </c>
+      <c r="N46">
+        <v>1.5042</v>
+      </c>
+      <c r="O46">
+        <v>14.222</v>
+      </c>
+      <c r="P46">
+        <v>7.7584999999999997</v>
+      </c>
+      <c r="Q46">
+        <v>41.159399999999998</v>
+      </c>
+      <c r="R46">
+        <v>25.599399999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>599</v>
+      </c>
+      <c r="C47" t="s">
+        <v>596</v>
+      </c>
+      <c r="D47" t="s">
+        <v>640</v>
+      </c>
+      <c r="E47">
+        <v>10.391500000000001</v>
+      </c>
+      <c r="F47">
+        <v>7.5176999999999996</v>
+      </c>
+      <c r="G47">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="H47">
+        <v>22.5244</v>
+      </c>
+      <c r="I47">
+        <v>12.421900000000001</v>
+      </c>
+      <c r="J47">
+        <v>201.53210000000001</v>
+      </c>
+      <c r="K47">
+        <v>9.4184000000000001</v>
+      </c>
+      <c r="L47">
+        <v>9.2316000000000003</v>
+      </c>
+      <c r="M47">
+        <v>1.1134999999999999</v>
+      </c>
+      <c r="N47">
+        <v>1.5435000000000001</v>
+      </c>
+      <c r="O47">
+        <v>14.448700000000001</v>
+      </c>
+      <c r="P47">
+        <v>7.1558999999999999</v>
+      </c>
+      <c r="Q47">
+        <v>41.329300000000003</v>
+      </c>
+      <c r="R47">
+        <v>26.023599999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>599</v>
+      </c>
+      <c r="C48" t="s">
+        <v>596</v>
+      </c>
+      <c r="D48" t="s">
+        <v>617</v>
+      </c>
+      <c r="E48">
+        <v>10.396100000000001</v>
+      </c>
+      <c r="F48">
+        <v>7.4999000000000002</v>
+      </c>
+      <c r="G48">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="H48">
+        <v>23.300799999999999</v>
+      </c>
+      <c r="I48">
+        <v>13.0852</v>
+      </c>
+      <c r="J48">
+        <v>198.65620000000001</v>
+      </c>
+      <c r="K48">
+        <v>9.4161999999999999</v>
+      </c>
+      <c r="L48">
+        <v>9.2338000000000005</v>
+      </c>
+      <c r="M48">
+        <v>1.1576</v>
+      </c>
+      <c r="N48">
+        <v>1.5566</v>
+      </c>
+      <c r="O48">
+        <v>14.4811</v>
+      </c>
+      <c r="P48">
+        <v>6.9454000000000002</v>
+      </c>
+      <c r="Q48">
+        <v>41.3934</v>
+      </c>
+      <c r="R48">
+        <v>26.183199999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>599</v>
+      </c>
+      <c r="C49" t="s">
+        <v>596</v>
+      </c>
+      <c r="D49" t="s">
+        <v>618</v>
+      </c>
+      <c r="E49">
+        <v>10.391500000000001</v>
+      </c>
+      <c r="F49">
+        <v>7.5178000000000003</v>
+      </c>
+      <c r="G49">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="H49">
+        <v>22.5244</v>
+      </c>
+      <c r="I49">
+        <v>12.421900000000001</v>
+      </c>
+      <c r="J49">
+        <v>201.53210000000001</v>
+      </c>
+      <c r="K49">
+        <v>9.4184000000000001</v>
+      </c>
+      <c r="L49">
+        <v>9.2316000000000003</v>
+      </c>
+      <c r="M49">
+        <v>1.1134999999999999</v>
+      </c>
+      <c r="N49">
+        <v>1.5435000000000001</v>
+      </c>
+      <c r="O49">
+        <v>14.448700000000001</v>
+      </c>
+      <c r="P49">
+        <v>7.1558999999999999</v>
+      </c>
+      <c r="Q49">
+        <v>41.329300000000003</v>
+      </c>
+      <c r="R49">
+        <v>26.023599999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>599</v>
+      </c>
+      <c r="C50" t="s">
+        <v>596</v>
+      </c>
+      <c r="D50" t="s">
+        <v>619</v>
+      </c>
+      <c r="E50">
+        <v>10.3742</v>
+      </c>
+      <c r="F50">
+        <v>7.5564999999999998</v>
+      </c>
+      <c r="G50">
+        <v>0.81769999999999998</v>
+      </c>
+      <c r="H50">
+        <v>20.361699999999999</v>
+      </c>
+      <c r="I50">
+        <v>10.683</v>
+      </c>
+      <c r="J50">
+        <v>209.08090000000001</v>
+      </c>
+      <c r="K50">
+        <v>9.4242000000000008</v>
+      </c>
+      <c r="L50">
+        <v>9.2257999999999996</v>
+      </c>
+      <c r="M50">
+        <v>1.0004999999999999</v>
+      </c>
+      <c r="N50">
+        <v>1.5042</v>
+      </c>
+      <c r="O50">
+        <v>14.222</v>
+      </c>
+      <c r="P50">
+        <v>7.7584999999999997</v>
+      </c>
+      <c r="Q50">
+        <v>41.159399999999998</v>
+      </c>
+      <c r="R50">
+        <v>25.599399999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>599</v>
+      </c>
+      <c r="C51" t="s">
+        <v>596</v>
+      </c>
+      <c r="D51" t="s">
+        <v>641</v>
+      </c>
+      <c r="E51">
+        <v>10.349600000000001</v>
+      </c>
+      <c r="F51">
+        <v>7.5731999999999999</v>
+      </c>
+      <c r="G51">
+        <v>0.73760000000000003</v>
+      </c>
+      <c r="H51">
+        <v>18.1098</v>
+      </c>
+      <c r="I51">
+        <v>9.0107999999999997</v>
+      </c>
+      <c r="J51">
+        <v>216.44489999999999</v>
+      </c>
+      <c r="K51">
+        <v>9.4301999999999992</v>
+      </c>
+      <c r="L51">
+        <v>9.2197999999999993</v>
+      </c>
+      <c r="M51">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="N51">
+        <v>1.4582999999999999</v>
+      </c>
+      <c r="O51">
+        <v>13.755000000000001</v>
+      </c>
+      <c r="P51">
+        <v>8.4303000000000008</v>
+      </c>
+      <c r="Q51">
+        <v>40.990900000000003</v>
+      </c>
+      <c r="R51">
+        <v>25.177700000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>599</v>
+      </c>
+      <c r="C52" t="s">
+        <v>596</v>
+      </c>
+      <c r="D52" t="s">
+        <v>620</v>
+      </c>
+      <c r="E52">
+        <v>12.4041</v>
+      </c>
+      <c r="F52">
+        <v>8.5983999999999998</v>
+      </c>
+      <c r="G52">
+        <v>1.1974</v>
+      </c>
+      <c r="H52">
+        <v>35.314500000000002</v>
+      </c>
+      <c r="I52">
+        <v>22.224</v>
+      </c>
+      <c r="J52">
+        <v>237.02799999999999</v>
+      </c>
+      <c r="K52">
+        <v>9.4162999999999997</v>
+      </c>
+      <c r="L52">
+        <v>9.2337000000000007</v>
+      </c>
+      <c r="M52">
+        <v>1.3811</v>
+      </c>
+      <c r="N52">
+        <v>1.8573</v>
+      </c>
+      <c r="O52">
+        <v>20.6157</v>
+      </c>
+      <c r="P52">
+        <v>6.9457000000000004</v>
+      </c>
+      <c r="Q52">
+        <v>42.2776</v>
+      </c>
+      <c r="R52">
+        <v>27.549800000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>599</v>
+      </c>
+      <c r="C53" t="s">
+        <v>596</v>
+      </c>
+      <c r="D53" t="s">
+        <v>621</v>
+      </c>
+      <c r="E53">
+        <v>11.809100000000001</v>
+      </c>
+      <c r="F53">
+        <v>8.2794000000000008</v>
+      </c>
+      <c r="G53">
+        <v>1.1197999999999999</v>
+      </c>
+      <c r="H53">
+        <v>31.5229</v>
+      </c>
+      <c r="I53">
+        <v>19.177499999999998</v>
+      </c>
+      <c r="J53">
+        <v>225.65860000000001</v>
+      </c>
+      <c r="K53">
+        <v>9.4162999999999997</v>
+      </c>
+      <c r="L53">
+        <v>9.2337000000000007</v>
+      </c>
+      <c r="M53">
+        <v>1.3148</v>
+      </c>
+      <c r="N53">
+        <v>1.7682</v>
+      </c>
+      <c r="O53">
+        <v>18.685300000000002</v>
+      </c>
+      <c r="P53">
+        <v>6.9455999999999998</v>
+      </c>
+      <c r="Q53">
+        <v>42.013599999999997</v>
+      </c>
+      <c r="R53">
+        <v>27.141999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>599</v>
+      </c>
+      <c r="C54" t="s">
+        <v>596</v>
+      </c>
+      <c r="D54" t="s">
+        <v>622</v>
+      </c>
+      <c r="E54">
+        <v>11.2141</v>
+      </c>
+      <c r="F54">
+        <v>7.9547999999999996</v>
+      </c>
+      <c r="G54">
+        <v>1.0431999999999999</v>
+      </c>
+      <c r="H54">
+        <v>27.919899999999998</v>
+      </c>
+      <c r="I54">
+        <v>16.422899999999998</v>
+      </c>
+      <c r="J54">
+        <v>214.28919999999999</v>
+      </c>
+      <c r="K54">
+        <v>9.4162999999999997</v>
+      </c>
+      <c r="L54">
+        <v>9.2337000000000007</v>
+      </c>
+      <c r="M54">
+        <v>1.2485999999999999</v>
+      </c>
+      <c r="N54">
+        <v>1.6791</v>
+      </c>
+      <c r="O54">
+        <v>16.849900000000002</v>
+      </c>
+      <c r="P54">
+        <v>6.9455</v>
+      </c>
+      <c r="Q54">
+        <v>41.751199999999997</v>
+      </c>
+      <c r="R54">
+        <v>26.736599999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>599</v>
+      </c>
+      <c r="C55" t="s">
+        <v>596</v>
+      </c>
+      <c r="D55" t="s">
+        <v>623</v>
+      </c>
+      <c r="E55">
+        <v>10.619199999999999</v>
+      </c>
+      <c r="F55">
+        <v>7.6254</v>
+      </c>
+      <c r="G55">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="H55">
+        <v>24.538599999999999</v>
+      </c>
+      <c r="I55">
+        <v>13.9457</v>
+      </c>
+      <c r="J55">
+        <v>202.91970000000001</v>
+      </c>
+      <c r="K55">
+        <v>9.4161999999999999</v>
+      </c>
+      <c r="L55">
+        <v>9.2338000000000005</v>
+      </c>
+      <c r="M55">
+        <v>1.1823999999999999</v>
+      </c>
+      <c r="N55">
+        <v>1.59</v>
+      </c>
+      <c r="O55">
+        <v>15.109299999999999</v>
+      </c>
+      <c r="P55">
+        <v>6.9455</v>
+      </c>
+      <c r="Q55">
+        <v>41.490600000000001</v>
+      </c>
+      <c r="R55">
+        <v>26.333600000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>599</v>
+      </c>
+      <c r="C56" t="s">
+        <v>596</v>
+      </c>
+      <c r="D56" t="s">
+        <v>624</v>
+      </c>
+      <c r="E56">
+        <v>12.571400000000001</v>
+      </c>
+      <c r="F56">
+        <v>8.6858000000000004</v>
+      </c>
+      <c r="G56">
+        <v>1.2177</v>
+      </c>
+      <c r="H56">
+        <v>36.373199999999997</v>
+      </c>
+      <c r="I56">
+        <v>23.135400000000001</v>
+      </c>
+      <c r="J56">
+        <v>240.22569999999999</v>
+      </c>
+      <c r="K56">
+        <v>9.4162999999999997</v>
+      </c>
+      <c r="L56">
+        <v>9.2337000000000007</v>
+      </c>
+      <c r="M56">
+        <v>1.3996999999999999</v>
+      </c>
+      <c r="N56">
+        <v>1.8823000000000001</v>
+      </c>
+      <c r="O56">
+        <v>21.175699999999999</v>
+      </c>
+      <c r="P56">
+        <v>6.9457000000000004</v>
+      </c>
+      <c r="Q56">
+        <v>42.352200000000003</v>
+      </c>
+      <c r="R56">
+        <v>27.664899999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>599</v>
+      </c>
+      <c r="C57" t="s">
+        <v>596</v>
+      </c>
+      <c r="D57" t="s">
+        <v>625</v>
+      </c>
+      <c r="E57">
+        <v>14.5322</v>
+      </c>
+      <c r="F57">
+        <v>9.2117000000000004</v>
+      </c>
+      <c r="G57">
+        <v>1.7766</v>
+      </c>
+      <c r="H57">
+        <v>58.397100000000002</v>
+      </c>
+      <c r="I57">
+        <v>47.912500000000001</v>
+      </c>
+      <c r="J57">
+        <v>251.422</v>
+      </c>
+      <c r="K57">
+        <v>9.4039999999999999</v>
+      </c>
+      <c r="L57">
+        <v>9.2460000000000004</v>
+      </c>
+      <c r="M57">
+        <v>2.0293999999999999</v>
+      </c>
+      <c r="N57">
+        <v>2.3016000000000001</v>
+      </c>
+      <c r="O57">
+        <v>29.684000000000001</v>
+      </c>
+      <c r="P57">
+        <v>5.7184999999999997</v>
+      </c>
+      <c r="Q57">
+        <v>43.855600000000003</v>
+      </c>
+      <c r="R57">
+        <v>30.529</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>599</v>
+      </c>
+      <c r="C58" t="s">
+        <v>596</v>
+      </c>
+      <c r="D58" t="s">
+        <v>626</v>
+      </c>
+      <c r="E58">
+        <v>14.099399999999999</v>
+      </c>
+      <c r="F58">
+        <v>9.1245999999999992</v>
+      </c>
+      <c r="G58">
+        <v>1.6395999999999999</v>
+      </c>
+      <c r="H58">
+        <v>53.203200000000002</v>
+      </c>
+      <c r="I58">
+        <v>41.392000000000003</v>
+      </c>
+      <c r="J58">
+        <v>249.17949999999999</v>
+      </c>
+      <c r="K58">
+        <v>9.4063999999999997</v>
+      </c>
+      <c r="L58">
+        <v>9.2436000000000007</v>
+      </c>
+      <c r="M58">
+        <v>1.8835999999999999</v>
+      </c>
+      <c r="N58">
+        <v>2.2075999999999998</v>
+      </c>
+      <c r="O58">
+        <v>27.845099999999999</v>
+      </c>
+      <c r="P58">
+        <v>5.952</v>
+      </c>
+      <c r="Q58">
+        <v>43.512</v>
+      </c>
+      <c r="R58">
+        <v>29.874400000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>599</v>
+      </c>
+      <c r="C59" t="s">
+        <v>596</v>
+      </c>
+      <c r="D59" t="s">
+        <v>627</v>
+      </c>
+      <c r="E59">
+        <v>13.657500000000001</v>
+      </c>
+      <c r="F59">
+        <v>9.0202000000000009</v>
+      </c>
+      <c r="G59">
+        <v>1.5095000000000001</v>
+      </c>
+      <c r="H59">
+        <v>48.151000000000003</v>
+      </c>
+      <c r="I59">
+        <v>35.382899999999999</v>
+      </c>
+      <c r="J59">
+        <v>246.75710000000001</v>
+      </c>
+      <c r="K59">
+        <v>9.4090000000000007</v>
+      </c>
+      <c r="L59">
+        <v>9.2409999999999997</v>
+      </c>
+      <c r="M59">
+        <v>1.7386999999999999</v>
+      </c>
+      <c r="N59">
+        <v>2.1128</v>
+      </c>
+      <c r="O59">
+        <v>25.9482</v>
+      </c>
+      <c r="P59">
+        <v>6.2093999999999996</v>
+      </c>
+      <c r="Q59">
+        <v>43.168300000000002</v>
+      </c>
+      <c r="R59">
+        <v>29.2197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>599</v>
+      </c>
+      <c r="C60" t="s">
+        <v>596</v>
+      </c>
+      <c r="D60" t="s">
+        <v>628</v>
+      </c>
+      <c r="E60">
+        <v>13.2065</v>
+      </c>
+      <c r="F60">
+        <v>8.8956</v>
+      </c>
+      <c r="G60">
+        <v>1.3863000000000001</v>
+      </c>
+      <c r="H60">
+        <v>43.1357</v>
+      </c>
+      <c r="I60">
+        <v>29.8812</v>
+      </c>
+      <c r="J60">
+        <v>244.14500000000001</v>
+      </c>
+      <c r="K60">
+        <v>9.4118999999999993</v>
+      </c>
+      <c r="L60">
+        <v>9.2380999999999993</v>
+      </c>
+      <c r="M60">
+        <v>1.5949</v>
+      </c>
+      <c r="N60">
+        <v>2.0167999999999999</v>
+      </c>
+      <c r="O60">
+        <v>23.9876</v>
+      </c>
+      <c r="P60">
+        <v>6.4951999999999996</v>
+      </c>
+      <c r="Q60">
+        <v>42.8247</v>
+      </c>
+      <c r="R60">
+        <v>28.565000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>599</v>
+      </c>
+      <c r="C61" t="s">
+        <v>596</v>
+      </c>
+      <c r="D61" t="s">
+        <v>629</v>
+      </c>
+      <c r="E61">
+        <v>12.7463</v>
+      </c>
+      <c r="F61">
+        <v>8.7454999999999998</v>
+      </c>
+      <c r="G61">
+        <v>1.2636000000000001</v>
+      </c>
+      <c r="H61">
+        <v>38.179900000000004</v>
+      </c>
+      <c r="I61">
+        <v>24.881799999999998</v>
+      </c>
+      <c r="J61">
+        <v>241.33340000000001</v>
+      </c>
+      <c r="K61">
+        <v>9.4151000000000007</v>
+      </c>
+      <c r="L61">
+        <v>9.2348999999999997</v>
+      </c>
+      <c r="M61">
+        <v>1.4525999999999999</v>
+      </c>
+      <c r="N61">
+        <v>1.9193</v>
+      </c>
+      <c r="O61">
+        <v>21.956700000000001</v>
+      </c>
+      <c r="P61">
+        <v>6.8152999999999997</v>
+      </c>
+      <c r="Q61">
+        <v>42.481000000000002</v>
+      </c>
+      <c r="R61">
+        <v>27.910399999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>599</v>
+      </c>
+      <c r="C62" t="s">
+        <v>596</v>
+      </c>
+      <c r="D62" t="s">
+        <v>630</v>
+      </c>
+      <c r="E62">
+        <v>12.7463</v>
+      </c>
+      <c r="F62">
+        <v>8.7454999999999998</v>
+      </c>
+      <c r="G62">
+        <v>1.2636000000000001</v>
+      </c>
+      <c r="H62">
+        <v>38.179900000000004</v>
+      </c>
+      <c r="I62">
+        <v>24.881799999999998</v>
+      </c>
+      <c r="J62">
+        <v>241.33340000000001</v>
+      </c>
+      <c r="K62">
+        <v>9.4151000000000007</v>
+      </c>
+      <c r="L62">
+        <v>9.2348999999999997</v>
+      </c>
+      <c r="M62">
+        <v>1.4525999999999999</v>
+      </c>
+      <c r="N62">
+        <v>1.9193</v>
+      </c>
+      <c r="O62">
+        <v>21.956700000000001</v>
+      </c>
+      <c r="P62">
+        <v>6.8152999999999997</v>
+      </c>
+      <c r="Q62">
+        <v>42.481000000000002</v>
+      </c>
+      <c r="R62">
+        <v>27.910399999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>599</v>
+      </c>
+      <c r="C63" t="s">
+        <v>596</v>
+      </c>
+      <c r="D63" t="s">
+        <v>631</v>
+      </c>
+      <c r="E63">
+        <v>13.2065</v>
+      </c>
+      <c r="F63">
+        <v>8.8956</v>
+      </c>
+      <c r="G63">
+        <v>1.3863000000000001</v>
+      </c>
+      <c r="H63">
+        <v>43.1357</v>
+      </c>
+      <c r="I63">
+        <v>29.8812</v>
+      </c>
+      <c r="J63">
+        <v>244.14500000000001</v>
+      </c>
+      <c r="K63">
+        <v>9.4118999999999993</v>
+      </c>
+      <c r="L63">
+        <v>9.2380999999999993</v>
+      </c>
+      <c r="M63">
+        <v>1.5949</v>
+      </c>
+      <c r="N63">
+        <v>2.0167999999999999</v>
+      </c>
+      <c r="O63">
+        <v>23.9876</v>
+      </c>
+      <c r="P63">
+        <v>6.4951999999999996</v>
+      </c>
+      <c r="Q63">
+        <v>42.8247</v>
+      </c>
+      <c r="R63">
+        <v>28.565000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>599</v>
+      </c>
+      <c r="C64" t="s">
+        <v>596</v>
+      </c>
+      <c r="D64" t="s">
+        <v>632</v>
+      </c>
+      <c r="E64">
+        <v>13.657500000000001</v>
+      </c>
+      <c r="F64">
+        <v>9.0202000000000009</v>
+      </c>
+      <c r="G64">
+        <v>1.5095000000000001</v>
+      </c>
+      <c r="H64">
+        <v>48.151000000000003</v>
+      </c>
+      <c r="I64">
+        <v>35.382899999999999</v>
+      </c>
+      <c r="J64">
+        <v>246.75710000000001</v>
+      </c>
+      <c r="K64">
+        <v>9.4090000000000007</v>
+      </c>
+      <c r="L64">
+        <v>9.2409999999999997</v>
+      </c>
+      <c r="M64">
+        <v>1.7386999999999999</v>
+      </c>
+      <c r="N64">
+        <v>2.1128</v>
+      </c>
+      <c r="O64">
+        <v>25.9482</v>
+      </c>
+      <c r="P64">
+        <v>6.2093999999999996</v>
+      </c>
+      <c r="Q64">
+        <v>43.168300000000002</v>
+      </c>
+      <c r="R64">
+        <v>29.2197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>599</v>
+      </c>
+      <c r="C65" t="s">
+        <v>596</v>
+      </c>
+      <c r="D65" t="s">
+        <v>633</v>
+      </c>
+      <c r="E65">
+        <v>14.099399999999999</v>
+      </c>
+      <c r="F65">
+        <v>9.1245999999999992</v>
+      </c>
+      <c r="G65">
+        <v>1.6395</v>
+      </c>
+      <c r="H65">
+        <v>53.203200000000002</v>
+      </c>
+      <c r="I65">
+        <v>41.392000000000003</v>
+      </c>
+      <c r="J65">
+        <v>249.17949999999999</v>
+      </c>
+      <c r="K65">
+        <v>9.4063999999999997</v>
+      </c>
+      <c r="L65">
+        <v>9.2436000000000007</v>
+      </c>
+      <c r="M65">
+        <v>1.8835999999999999</v>
+      </c>
+      <c r="N65">
+        <v>2.2075999999999998</v>
+      </c>
+      <c r="O65">
+        <v>27.845099999999999</v>
+      </c>
+      <c r="P65">
+        <v>5.952</v>
+      </c>
+      <c r="Q65">
+        <v>43.512</v>
+      </c>
+      <c r="R65">
+        <v>29.874400000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>599</v>
+      </c>
+      <c r="C66" t="s">
+        <v>596</v>
+      </c>
+      <c r="D66" t="s">
+        <v>634</v>
+      </c>
+      <c r="E66">
+        <v>12.571400000000001</v>
+      </c>
+      <c r="F66">
+        <v>8.6858000000000004</v>
+      </c>
+      <c r="G66">
+        <v>1.2177</v>
+      </c>
+      <c r="H66">
+        <v>36.373199999999997</v>
+      </c>
+      <c r="I66">
+        <v>23.135400000000001</v>
+      </c>
+      <c r="J66">
+        <v>240.22569999999999</v>
+      </c>
+      <c r="K66">
+        <v>9.4162999999999997</v>
+      </c>
+      <c r="L66">
+        <v>9.2337000000000007</v>
+      </c>
+      <c r="M66">
+        <v>1.3996999999999999</v>
+      </c>
+      <c r="N66">
+        <v>1.8823000000000001</v>
+      </c>
+      <c r="O66">
+        <v>21.175699999999999</v>
+      </c>
+      <c r="P66">
+        <v>6.9457000000000004</v>
+      </c>
+      <c r="Q66">
+        <v>42.352200000000003</v>
+      </c>
+      <c r="R66">
+        <v>27.664899999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>599</v>
+      </c>
+      <c r="C67" t="s">
+        <v>596</v>
+      </c>
+      <c r="D67" t="s">
+        <v>635</v>
+      </c>
+      <c r="E67">
+        <v>10.396100000000001</v>
+      </c>
+      <c r="F67">
+        <v>7.4999000000000002</v>
+      </c>
+      <c r="G67">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="H67">
+        <v>23.300799999999999</v>
+      </c>
+      <c r="I67">
+        <v>13.0852</v>
+      </c>
+      <c r="J67">
+        <v>198.65620000000001</v>
+      </c>
+      <c r="K67">
+        <v>9.4161999999999999</v>
+      </c>
+      <c r="L67">
+        <v>9.2338000000000005</v>
+      </c>
+      <c r="M67">
+        <v>1.1576</v>
+      </c>
+      <c r="N67">
+        <v>1.5566</v>
+      </c>
+      <c r="O67">
+        <v>14.4811</v>
+      </c>
+      <c r="P67">
+        <v>6.9454000000000002</v>
+      </c>
+      <c r="Q67">
+        <v>41.3934</v>
+      </c>
+      <c r="R67">
+        <v>26.183199999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>599</v>
+      </c>
+      <c r="C68" t="s">
+        <v>596</v>
+      </c>
+      <c r="D68" t="s">
+        <v>636</v>
+      </c>
+      <c r="E68">
+        <v>10.619199999999999</v>
+      </c>
+      <c r="F68">
+        <v>7.6254</v>
+      </c>
+      <c r="G68">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="H68">
+        <v>24.538599999999999</v>
+      </c>
+      <c r="I68">
+        <v>13.9457</v>
+      </c>
+      <c r="J68">
+        <v>202.91970000000001</v>
+      </c>
+      <c r="K68">
+        <v>9.4161999999999999</v>
+      </c>
+      <c r="L68">
+        <v>9.2338000000000005</v>
+      </c>
+      <c r="M68">
+        <v>1.1823999999999999</v>
+      </c>
+      <c r="N68">
+        <v>1.59</v>
+      </c>
+      <c r="O68">
+        <v>15.109299999999999</v>
+      </c>
+      <c r="P68">
+        <v>6.9455</v>
+      </c>
+      <c r="Q68">
+        <v>41.490600000000001</v>
+      </c>
+      <c r="R68">
+        <v>26.333600000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>599</v>
+      </c>
+      <c r="C69" t="s">
+        <v>596</v>
+      </c>
+      <c r="D69" t="s">
+        <v>637</v>
+      </c>
+      <c r="E69">
+        <v>11.2141</v>
+      </c>
+      <c r="F69">
+        <v>7.9547999999999996</v>
+      </c>
+      <c r="G69">
+        <v>1.0431999999999999</v>
+      </c>
+      <c r="H69">
+        <v>27.919899999999998</v>
+      </c>
+      <c r="I69">
+        <v>16.422899999999998</v>
+      </c>
+      <c r="J69">
+        <v>214.28919999999999</v>
+      </c>
+      <c r="K69">
+        <v>9.4162999999999997</v>
+      </c>
+      <c r="L69">
+        <v>9.2337000000000007</v>
+      </c>
+      <c r="M69">
+        <v>1.2485999999999999</v>
+      </c>
+      <c r="N69">
+        <v>1.6791</v>
+      </c>
+      <c r="O69">
+        <v>16.849900000000002</v>
+      </c>
+      <c r="P69">
+        <v>6.9455</v>
+      </c>
+      <c r="Q69">
+        <v>41.751199999999997</v>
+      </c>
+      <c r="R69">
+        <v>26.736599999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>599</v>
+      </c>
+      <c r="C70" t="s">
+        <v>596</v>
+      </c>
+      <c r="D70" t="s">
+        <v>638</v>
+      </c>
+      <c r="E70">
+        <v>11.809100000000001</v>
+      </c>
+      <c r="F70">
+        <v>8.2795000000000005</v>
+      </c>
+      <c r="G70">
+        <v>1.1197999999999999</v>
+      </c>
+      <c r="H70">
+        <v>31.5229</v>
+      </c>
+      <c r="I70">
+        <v>19.177499999999998</v>
+      </c>
+      <c r="J70">
+        <v>225.65860000000001</v>
+      </c>
+      <c r="K70">
+        <v>9.4162999999999997</v>
+      </c>
+      <c r="L70">
+        <v>9.2337000000000007</v>
+      </c>
+      <c r="M70">
+        <v>1.3148</v>
+      </c>
+      <c r="N70">
+        <v>1.7682</v>
+      </c>
+      <c r="O70">
+        <v>18.685300000000002</v>
+      </c>
+      <c r="P70">
+        <v>6.9455999999999998</v>
+      </c>
+      <c r="Q70">
+        <v>42.013599999999997</v>
+      </c>
+      <c r="R70">
+        <v>27.141999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>599</v>
+      </c>
+      <c r="C71" t="s">
+        <v>596</v>
+      </c>
+      <c r="D71" t="s">
+        <v>639</v>
+      </c>
+      <c r="E71">
+        <v>12.4041</v>
+      </c>
+      <c r="F71">
+        <v>8.5983999999999998</v>
+      </c>
+      <c r="G71">
+        <v>1.1974</v>
+      </c>
+      <c r="H71">
+        <v>35.314500000000002</v>
+      </c>
+      <c r="I71">
+        <v>22.224</v>
+      </c>
+      <c r="J71">
+        <v>237.02799999999999</v>
+      </c>
+      <c r="K71">
+        <v>9.4162999999999997</v>
+      </c>
+      <c r="L71">
+        <v>9.2337000000000007</v>
+      </c>
+      <c r="M71">
+        <v>1.3811</v>
+      </c>
+      <c r="N71">
+        <v>1.8573</v>
+      </c>
+      <c r="O71">
+        <v>20.6157</v>
+      </c>
+      <c r="P71">
+        <v>6.9457000000000004</v>
+      </c>
+      <c r="Q71">
+        <v>42.2776</v>
+      </c>
+      <c r="R71">
+        <v>27.549800000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4A50DA-13A2-489D-A2DC-CA6B03093BA1}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11192,7 +15939,7 @@
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16900,7 +21647,7 @@
   <dimension ref="A2:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D72" sqref="A1:XFD1048576"/>
+      <selection activeCell="A38" activeCellId="3" sqref="A3:E3 A18:E18 A29:E29 A38:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17772,7 +22519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E097E606-84F0-4294-85EC-C84E11BAD841}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -17971,7 +22718,7 @@
         <v>83</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D17" si="7">C5+1</f>
+        <f t="shared" ref="D5:D16" si="7">C5+1</f>
         <v>84</v>
       </c>
       <c r="E5" s="3" t="str">
@@ -18566,7 +23313,7 @@
         <v>94</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C16:D25" si="8">C16+1</f>
+        <f t="shared" ref="C17:D24" si="8">C16+1</f>
         <v>96</v>
       </c>
       <c r="D17" s="3">
@@ -19946,6 +24693,1157 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E070CE5-55DD-42BB-A432-DCB46581DC6D}">
+  <dimension ref="A1:AD25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T11" sqref="T11:AD18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="20" max="20" width="26.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="M2" t="s">
+        <v>585</v>
+      </c>
+      <c r="N2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O2" t="s">
+        <v>220</v>
+      </c>
+      <c r="P2" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="3">
+        <v>127</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-3.3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-2.75</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N3">
+        <v>143</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>-3.3</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>252</v>
+      </c>
+      <c r="U3">
+        <v>130</v>
+      </c>
+      <c r="V3">
+        <v>143</v>
+      </c>
+      <c r="W3">
+        <v>127</v>
+      </c>
+      <c r="X3" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="3">
+        <v>128</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-3.3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-2.75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>214</v>
+      </c>
+      <c r="N4">
+        <v>144</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>3.3</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>252</v>
+      </c>
+      <c r="U4">
+        <v>131</v>
+      </c>
+      <c r="V4">
+        <v>144</v>
+      </c>
+      <c r="W4">
+        <v>129</v>
+      </c>
+      <c r="X4" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="M5" t="s">
+        <v>214</v>
+      </c>
+      <c r="N5">
+        <v>145</v>
+      </c>
+      <c r="O5">
+        <v>42</v>
+      </c>
+      <c r="P5">
+        <v>-3.3</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>252</v>
+      </c>
+      <c r="U5">
+        <v>132</v>
+      </c>
+      <c r="V5">
+        <v>145</v>
+      </c>
+      <c r="W5">
+        <v>131</v>
+      </c>
+      <c r="X5" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="3">
+        <v>129</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-2.75</v>
+      </c>
+      <c r="M6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N6">
+        <v>146</v>
+      </c>
+      <c r="O6">
+        <v>42</v>
+      </c>
+      <c r="P6">
+        <v>3.3</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>252</v>
+      </c>
+      <c r="U6">
+        <v>133</v>
+      </c>
+      <c r="V6">
+        <v>146</v>
+      </c>
+      <c r="W6">
+        <v>133</v>
+      </c>
+      <c r="X6" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="3">
+        <v>130</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-2.75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>214</v>
+      </c>
+      <c r="N7">
+        <v>147</v>
+      </c>
+      <c r="O7">
+        <v>120</v>
+      </c>
+      <c r="P7">
+        <v>-3.3</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>252</v>
+      </c>
+      <c r="U7">
+        <v>134</v>
+      </c>
+      <c r="V7">
+        <v>147</v>
+      </c>
+      <c r="W7">
+        <v>135</v>
+      </c>
+      <c r="X7" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="M8" t="s">
+        <v>214</v>
+      </c>
+      <c r="N8">
+        <v>148</v>
+      </c>
+      <c r="O8">
+        <v>120</v>
+      </c>
+      <c r="P8">
+        <v>3.3</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>252</v>
+      </c>
+      <c r="U8">
+        <v>135</v>
+      </c>
+      <c r="V8">
+        <v>148</v>
+      </c>
+      <c r="W8">
+        <v>137</v>
+      </c>
+      <c r="X8" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="3">
+        <v>131</v>
+      </c>
+      <c r="C9" s="3">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-3.3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-5.1100000000000003</v>
+      </c>
+      <c r="H9">
+        <v>22</v>
+      </c>
+      <c r="I9">
+        <v>42</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>214</v>
+      </c>
+      <c r="N9">
+        <v>149</v>
+      </c>
+      <c r="O9">
+        <v>162</v>
+      </c>
+      <c r="P9">
+        <v>-3.3</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>252</v>
+      </c>
+      <c r="U9">
+        <v>136</v>
+      </c>
+      <c r="V9">
+        <v>149</v>
+      </c>
+      <c r="W9">
+        <v>139</v>
+      </c>
+      <c r="X9" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="3">
+        <v>132</v>
+      </c>
+      <c r="C10" s="3">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-3.3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-5.1100000000000003</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+      <c r="I10">
+        <v>120</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>214</v>
+      </c>
+      <c r="N10">
+        <v>150</v>
+      </c>
+      <c r="O10">
+        <v>162</v>
+      </c>
+      <c r="P10">
+        <v>3.3</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>252</v>
+      </c>
+      <c r="U10">
+        <v>137</v>
+      </c>
+      <c r="V10">
+        <v>150</v>
+      </c>
+      <c r="W10">
+        <v>141</v>
+      </c>
+      <c r="X10" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="H11">
+        <v>80</v>
+      </c>
+      <c r="I11">
+        <v>162</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>252</v>
+      </c>
+      <c r="U11">
+        <v>138</v>
+      </c>
+      <c r="V11">
+        <v>81</v>
+      </c>
+      <c r="W11">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="3">
+        <v>133</v>
+      </c>
+      <c r="C12" s="3">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-5.1100000000000003</v>
+      </c>
+      <c r="M12" t="s">
+        <v>214</v>
+      </c>
+      <c r="N12">
+        <v>81</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>-2.79</v>
+      </c>
+      <c r="T12" t="s">
+        <v>252</v>
+      </c>
+      <c r="U12">
+        <v>139</v>
+      </c>
+      <c r="V12">
+        <v>81</v>
+      </c>
+      <c r="W12">
+        <f>W11+2</f>
+        <v>130</v>
+      </c>
+      <c r="X12" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="3">
+        <v>134</v>
+      </c>
+      <c r="C13" s="3">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-5.1100000000000003</v>
+      </c>
+      <c r="M13" t="s">
+        <v>214</v>
+      </c>
+      <c r="N13">
+        <v>95</v>
+      </c>
+      <c r="O13">
+        <v>42</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>-5.23</v>
+      </c>
+      <c r="T13" t="s">
+        <v>252</v>
+      </c>
+      <c r="U13">
+        <v>140</v>
+      </c>
+      <c r="V13">
+        <v>95</v>
+      </c>
+      <c r="W13">
+        <f t="shared" ref="W13:W18" si="0">W12+2</f>
+        <v>132</v>
+      </c>
+      <c r="X13" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="M14" t="s">
+        <v>214</v>
+      </c>
+      <c r="N14">
+        <v>105</v>
+      </c>
+      <c r="O14">
+        <v>120</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>-5.23</v>
+      </c>
+      <c r="T14" t="s">
+        <v>252</v>
+      </c>
+      <c r="U14">
+        <v>141</v>
+      </c>
+      <c r="V14">
+        <v>95</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="X14" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="3">
+        <v>135</v>
+      </c>
+      <c r="C15" s="3">
+        <v>120</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-3.3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-5.1100000000000003</v>
+      </c>
+      <c r="M15" t="s">
+        <v>214</v>
+      </c>
+      <c r="N15">
+        <v>113</v>
+      </c>
+      <c r="O15">
+        <v>162</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>-2.82</v>
+      </c>
+      <c r="T15" t="s">
+        <v>252</v>
+      </c>
+      <c r="U15">
+        <v>142</v>
+      </c>
+      <c r="V15">
+        <v>105</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="X15" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="3">
+        <v>136</v>
+      </c>
+      <c r="C16" s="3">
+        <v>120</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-3.3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-5.1100000000000003</v>
+      </c>
+      <c r="T16" t="s">
+        <v>252</v>
+      </c>
+      <c r="U16">
+        <v>143</v>
+      </c>
+      <c r="V16">
+        <v>105</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="X16" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="T17" t="s">
+        <v>252</v>
+      </c>
+      <c r="U17">
+        <v>144</v>
+      </c>
+      <c r="V17">
+        <v>113</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="X17" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="3">
+        <v>137</v>
+      </c>
+      <c r="C18" s="3">
+        <v>120</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5.1100000000000003</v>
+      </c>
+      <c r="T18" t="s">
+        <v>252</v>
+      </c>
+      <c r="U18">
+        <v>145</v>
+      </c>
+      <c r="V18">
+        <v>113</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="X18" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="3">
+        <v>138</v>
+      </c>
+      <c r="C19" s="3">
+        <v>120</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>-5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="3">
+        <v>139</v>
+      </c>
+      <c r="C21" s="3">
+        <v>162</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-3.3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="3">
+        <v>140</v>
+      </c>
+      <c r="C22" s="3">
+        <v>162</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-3.3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>-2.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="3">
+        <v>141</v>
+      </c>
+      <c r="C24" s="3">
+        <v>162</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-2.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="3">
+        <v>142</v>
+      </c>
+      <c r="C25" s="3">
+        <v>162</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E25" s="3">
+        <v>-2.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174D56D1-A1B3-4D0E-8BA5-F64D7C6FF138}">
   <dimension ref="A1:H48"/>
   <sheetViews>
@@ -21287,12 +27185,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4E2BC9-C42B-40AF-9603-438EED40B491}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21622,591 +27520,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83ACD26-4D48-484C-A117-44FACCE3DBDC}">
-  <dimension ref="A1:R18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="A2:J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="9" style="3"/>
-    <col min="14" max="14" width="44.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="3">
-        <v>127</v>
-      </c>
-      <c r="D2" s="3">
-        <f>C2+1</f>
-        <v>128</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>2</v>
-      </c>
-      <c r="K2" s="3">
-        <v>4</v>
-      </c>
-      <c r="L2" s="3">
-        <v>6</v>
-      </c>
-      <c r="N2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C3" s="3">
-        <f>+C2+2</f>
-        <v>129</v>
-      </c>
-      <c r="D3" s="3">
-        <f>+D2+2</f>
-        <v>130</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>2</v>
-      </c>
-      <c r="K3" s="3">
-        <v>4</v>
-      </c>
-      <c r="L3" s="3">
-        <v>6</v>
-      </c>
-      <c r="N3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C4" s="3">
-        <f t="shared" ref="C4:D9" si="0">+C3+2</f>
-        <v>131</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>2</v>
-      </c>
-      <c r="K4" s="3">
-        <v>4</v>
-      </c>
-      <c r="L4" s="3">
-        <v>6</v>
-      </c>
-      <c r="N4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1003</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>134</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3">
-        <v>4</v>
-      </c>
-      <c r="L5" s="3">
-        <v>6</v>
-      </c>
-      <c r="N5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1004</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>136</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2</v>
-      </c>
-      <c r="K6" s="3">
-        <v>3</v>
-      </c>
-      <c r="L6" s="3">
-        <v>4</v>
-      </c>
-      <c r="M6" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1005</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>2</v>
-      </c>
-      <c r="K7" s="3">
-        <v>3</v>
-      </c>
-      <c r="L7" s="3">
-        <v>4</v>
-      </c>
-      <c r="M7" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1006</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>139</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1007</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>141</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="F9" s="3">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>4</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2</v>
-      </c>
-      <c r="K9" s="3">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L11" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="M11" s="3">
-        <v>127</v>
-      </c>
-      <c r="N11" s="3">
-        <f>M11+1</f>
-        <v>128</v>
-      </c>
-      <c r="O11">
-        <v>3</v>
-      </c>
-      <c r="P11">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>5</v>
-      </c>
-      <c r="R11" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L12" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="M12" s="3">
-        <f>+M11+2</f>
-        <v>129</v>
-      </c>
-      <c r="N12" s="3">
-        <f>+N11+2</f>
-        <v>130</v>
-      </c>
-      <c r="O12">
-        <v>3</v>
-      </c>
-      <c r="P12">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>5</v>
-      </c>
-      <c r="R12" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L13" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="M13" s="3">
-        <f t="shared" ref="M13:M18" si="1">+M12+2</f>
-        <v>131</v>
-      </c>
-      <c r="N13" s="3">
-        <f t="shared" ref="N13:N18" si="2">+N12+2</f>
-        <v>132</v>
-      </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
-      <c r="P13">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>5</v>
-      </c>
-      <c r="R13" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L14" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" si="1"/>
-        <v>133</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" si="2"/>
-        <v>134</v>
-      </c>
-      <c r="O14">
-        <v>3</v>
-      </c>
-      <c r="P14">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L15" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" si="1"/>
-        <v>135</v>
-      </c>
-      <c r="N15" s="3">
-        <f t="shared" si="2"/>
-        <v>136</v>
-      </c>
-      <c r="O15">
-        <v>3</v>
-      </c>
-      <c r="P15">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L16" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="1"/>
-        <v>137</v>
-      </c>
-      <c r="N16" s="3">
-        <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-      <c r="O16">
-        <v>3</v>
-      </c>
-      <c r="P16">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>5</v>
-      </c>
-      <c r="R16" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L17" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" si="1"/>
-        <v>139</v>
-      </c>
-      <c r="N17" s="3">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="O17">
-        <v>3</v>
-      </c>
-      <c r="P17">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="M18" s="3">
-        <f t="shared" si="1"/>
-        <v>141</v>
-      </c>
-      <c r="N18" s="3">
-        <f t="shared" si="2"/>
-        <v>142</v>
-      </c>
-      <c r="O18">
-        <v>3</v>
-      </c>
-      <c r="P18">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>